--- a/Example Baseline - Southern Ute Reservation.xlsx
+++ b/Example Baseline - Southern Ute Reservation.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceverson\Documents\Southern Ute Baseline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmadalon\Documents\GitHub\Affordable-Housing-Baseline-Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7464"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7464" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations (San Juan NM)" sheetId="7" r:id="rId1"/>
     <sheet name="Calculations (La Plata)" sheetId="6" r:id="rId2"/>
     <sheet name="ownership units" sheetId="1" r:id="rId3"/>
     <sheet name="rental units" sheetId="3" r:id="rId4"/>
-    <sheet name="B25026" sheetId="4" r:id="rId5"/>
-    <sheet name="B25075" sheetId="5" r:id="rId6"/>
+    <sheet name="Renter" sheetId="4" r:id="rId5"/>
+    <sheet name="Ownership" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
   <si>
     <t>Less than $50,000</t>
   </si>
@@ -82,12 +82,6 @@
     <t>Housing Units</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Southern Ute Reservation, CO</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -97,18 +91,9 @@
     <t>Margin of Error</t>
   </si>
   <si>
-    <t>±241</t>
-  </si>
-  <si>
-    <t>±144</t>
-  </si>
-  <si>
     <t>±66</t>
   </si>
   <si>
-    <t>±133</t>
-  </si>
-  <si>
     <t>±25</t>
   </si>
   <si>
@@ -205,12 +190,6 @@
     <t xml:space="preserve">Rental Unit </t>
   </si>
   <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>With cash rent:</t>
-  </si>
-  <si>
     <t>Less than $100</t>
   </si>
   <si>
@@ -305,9 +284,6 @@
   </si>
   <si>
     <t>$3,500 or more</t>
-  </si>
-  <si>
-    <t>No cash rent</t>
   </si>
   <si>
     <t>Less than $10,000</t>
@@ -467,7 +443,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -527,7 +503,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -541,11 +517,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -841,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -855,54 +828,54 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="12">
+        <v>115</v>
+      </c>
+      <c r="B3" s="11">
         <v>54200</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="9">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8">
         <v>53</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>53</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>F3*0.1</f>
         <v>5.3000000000000007</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>19</v>
@@ -918,20 +891,20 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="9">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8">
         <v>47</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>47</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G28" si="0">F4*0.1</f>
         <v>4.7</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -947,27 +920,27 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="6">
+        <v>116</v>
+      </c>
+      <c r="B5" s="5">
         <f>B3</f>
         <v>54200</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="9">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8">
         <v>20</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>18</v>
@@ -983,27 +956,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="6">
+        <v>117</v>
+      </c>
+      <c r="B6" s="5">
         <f>B3*0.6</f>
         <v>32520</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="9">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8">
         <v>35</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>35</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J6">
         <v>35</v>
@@ -1019,20 +992,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="9">
+        <v>90</v>
+      </c>
+      <c r="E7" s="8">
         <v>18</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>18</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -1048,26 +1021,26 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="6">
+        <v>119</v>
+      </c>
+      <c r="B8" s="5">
         <v>216800</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="9">
+        <v>91</v>
+      </c>
+      <c r="E8" s="8">
         <v>40</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>40</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -1083,27 +1056,27 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="7">
+        <v>118</v>
+      </c>
+      <c r="B9" s="6">
         <f>(B6/12)*0.3</f>
         <v>813</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9">
+        <v>92</v>
+      </c>
+      <c r="E9" s="8">
         <v>27</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>27</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1119,20 +1092,20 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="9">
+        <v>93</v>
+      </c>
+      <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>24</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <v>53</v>
@@ -1148,27 +1121,27 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="10">
+        <v>127</v>
+      </c>
+      <c r="B11" s="9">
         <f>G29+L29</f>
         <v>580.20000000000005</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="9">
+        <v>94</v>
+      </c>
+      <c r="E11" s="8">
         <v>64</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>64</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J11">
         <v>11</v>
@@ -1184,27 +1157,27 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="10">
+        <v>128</v>
+      </c>
+      <c r="B12" s="9">
         <f>B11*0.03</f>
         <v>17.406000000000002</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="9">
+        <v>95</v>
+      </c>
+      <c r="E12" s="8">
         <v>14</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>14</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J12">
         <v>22</v>
@@ -1220,27 +1193,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="10">
+        <v>129</v>
+      </c>
+      <c r="B13" s="9">
         <f>B12*3</f>
         <v>52.218000000000004</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="9">
+        <v>96</v>
+      </c>
+      <c r="E13" s="8">
         <v>59</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>59</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J13">
         <v>47</v>
@@ -1256,20 +1229,20 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="9">
+        <v>97</v>
+      </c>
+      <c r="E14" s="8">
         <v>30</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>30</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>36</v>
@@ -1285,26 +1258,26 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="11">
+        <v>130</v>
+      </c>
+      <c r="B15" s="10">
         <v>0.62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="9">
+        <v>98</v>
+      </c>
+      <c r="E15" s="8">
         <v>49</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>49</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J15">
         <v>29</v>
@@ -1320,26 +1293,26 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="11">
+        <v>134</v>
+      </c>
+      <c r="B16" s="10">
         <v>0.43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="9">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8">
         <v>132</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>132</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>13.200000000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J16">
         <v>86</v>
@@ -1354,22 +1327,22 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="D17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="9">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8">
         <v>60</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>60</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J17">
         <v>54</v>
@@ -1385,27 +1358,27 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="10">
+        <v>131</v>
+      </c>
+      <c r="B18" s="9">
         <f>(G29+L29)*(AVERAGE(B15:B16))</f>
         <v>304.60500000000002</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="9">
+        <v>102</v>
+      </c>
+      <c r="E18" s="8">
         <v>174</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>174</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>17.400000000000002</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J18">
         <v>97</v>
@@ -1420,27 +1393,27 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="10">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9">
         <f>B18*0.03</f>
         <v>9.1381499999999996</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="9">
+        <v>103</v>
+      </c>
+      <c r="E19" s="8">
         <v>156</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>156</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>15.600000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19">
         <v>56</v>
@@ -1455,27 +1428,27 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="10">
+        <v>133</v>
+      </c>
+      <c r="B20" s="9">
         <f>B19*3</f>
         <v>27.414449999999999</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="9">
+        <v>105</v>
+      </c>
+      <c r="E20" s="8">
         <v>399</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>100</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J20">
         <v>141</v>
@@ -1484,26 +1457,26 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="K20:L26" si="2">K20</f>
+        <f t="shared" ref="L20:L26" si="2">K20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="9">
+        <v>106</v>
+      </c>
+      <c r="E21" s="8">
         <v>399</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J21">
         <v>42</v>
@@ -1518,20 +1491,20 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="9">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8">
         <v>754</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J22">
         <v>88</v>
@@ -1546,20 +1519,20 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="9">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8">
         <v>542</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1574,20 +1547,20 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="9">
+        <v>110</v>
+      </c>
+      <c r="E24" s="8">
         <v>657</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1602,20 +1575,20 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="9">
+        <v>111</v>
+      </c>
+      <c r="E25" s="8">
         <v>232</v>
       </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1630,20 +1603,20 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="9">
+        <v>112</v>
+      </c>
+      <c r="E26" s="8">
         <v>89</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1658,44 +1631,44 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="9">
+        <v>113</v>
+      </c>
+      <c r="E27" s="8">
         <v>26</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="9">
+        <v>114</v>
+      </c>
+      <c r="E28" s="8">
         <v>60</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="10">
+        <v>125</v>
+      </c>
+      <c r="G29" s="9">
         <f>SUM(G3:G28)</f>
         <v>110.19999999999999</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L29">
         <f>SUM(L3:L26)</f>
@@ -1713,7 +1686,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,54 +1699,54 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="6">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5">
         <v>101300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="9">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8">
         <v>53</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>53</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>F3*0.1</f>
         <v>5.3000000000000007</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>19</v>
@@ -1789,20 +1762,20 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="9">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8">
         <v>47</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>47</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G28" si="0">F4*0.1</f>
         <v>4.7</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -1818,27 +1791,27 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="6">
+        <v>116</v>
+      </c>
+      <c r="B5" s="5">
         <f>B3*1</f>
         <v>101300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="9">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8">
         <v>20</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>18</v>
@@ -1854,27 +1827,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="6">
+        <v>117</v>
+      </c>
+      <c r="B6" s="5">
         <f>B3*0.6</f>
         <v>60780</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="9">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8">
         <v>35</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>35</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J6">
         <v>35</v>
@@ -1890,20 +1863,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="9">
+        <v>90</v>
+      </c>
+      <c r="E7" s="8">
         <v>18</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>18</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -1919,26 +1892,26 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="6">
+        <v>119</v>
+      </c>
+      <c r="B8" s="5">
         <v>375300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="9">
+        <v>91</v>
+      </c>
+      <c r="E8" s="8">
         <v>40</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>40</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -1954,27 +1927,27 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="7">
+        <v>118</v>
+      </c>
+      <c r="B9" s="6">
         <f>(B6/12)*0.3</f>
         <v>1519.5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9">
+        <v>92</v>
+      </c>
+      <c r="E9" s="8">
         <v>27</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>27</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1990,20 +1963,20 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="9">
+        <v>93</v>
+      </c>
+      <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>24</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <v>53</v>
@@ -2019,27 +1992,27 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="10">
+        <v>127</v>
+      </c>
+      <c r="B11" s="9">
         <f>G29+L29</f>
         <v>1036</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="9">
+        <v>94</v>
+      </c>
+      <c r="E11" s="8">
         <v>64</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>64</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J11">
         <v>11</v>
@@ -2055,27 +2028,27 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="10">
+        <v>128</v>
+      </c>
+      <c r="B12" s="9">
         <f>B11*0.03</f>
         <v>31.08</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="9">
+        <v>95</v>
+      </c>
+      <c r="E12" s="8">
         <v>14</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>14</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J12">
         <v>22</v>
@@ -2091,27 +2064,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="10">
+        <v>129</v>
+      </c>
+      <c r="B13" s="9">
         <f>B12*3</f>
         <v>93.24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="9">
+        <v>96</v>
+      </c>
+      <c r="E13" s="8">
         <v>59</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>59</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J13">
         <v>47</v>
@@ -2127,20 +2100,20 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="9">
+        <v>97</v>
+      </c>
+      <c r="E14" s="8">
         <v>30</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>30</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>36</v>
@@ -2156,26 +2129,26 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="11">
+        <v>130</v>
+      </c>
+      <c r="B15" s="10">
         <v>0.62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="9">
+        <v>98</v>
+      </c>
+      <c r="E15" s="8">
         <v>49</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>49</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J15">
         <v>29</v>
@@ -2191,26 +2164,26 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="11">
+        <v>134</v>
+      </c>
+      <c r="B16" s="10">
         <v>0.43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="9">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8">
         <v>132</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>132</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>13.200000000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J16">
         <v>86</v>
@@ -2225,22 +2198,22 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="D17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="9">
+        <v>101</v>
+      </c>
+      <c r="E17" s="8">
         <v>60</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>60</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J17">
         <v>54</v>
@@ -2256,27 +2229,27 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="10">
+        <v>131</v>
+      </c>
+      <c r="B18" s="9">
         <f>(G29+L29)*(AVERAGE(B15:B16))</f>
         <v>543.9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="9">
+        <v>102</v>
+      </c>
+      <c r="E18" s="8">
         <v>174</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>174</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>17.400000000000002</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J18">
         <v>97</v>
@@ -2292,27 +2265,27 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="10">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9">
         <f>B18*0.03</f>
         <v>16.317</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="9">
+        <v>103</v>
+      </c>
+      <c r="E19" s="8">
         <v>156</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>156</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>15.600000000000001</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19">
         <v>56</v>
@@ -2328,27 +2301,27 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="10">
+        <v>133</v>
+      </c>
+      <c r="B20" s="9">
         <f>B19*3</f>
         <v>48.951000000000001</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="9">
+        <v>105</v>
+      </c>
+      <c r="E20" s="8">
         <v>399</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>399</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f t="shared" si="0"/>
         <v>39.900000000000006</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J20">
         <v>141</v>
@@ -2364,20 +2337,20 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="9">
+        <v>106</v>
+      </c>
+      <c r="E21" s="8">
         <v>399</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>399</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>39.900000000000006</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J21">
         <v>42</v>
@@ -2393,20 +2366,20 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="9">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8">
         <v>754</v>
       </c>
       <c r="F22">
         <v>500</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J22">
         <v>88</v>
@@ -2421,20 +2394,20 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="9">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8">
         <v>542</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -2449,20 +2422,20 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="9">
+        <v>110</v>
+      </c>
+      <c r="E24" s="8">
         <v>657</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2477,20 +2450,20 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="9">
+        <v>111</v>
+      </c>
+      <c r="E25" s="8">
         <v>232</v>
       </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2505,20 +2478,20 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="9">
+        <v>112</v>
+      </c>
+      <c r="E26" s="8">
         <v>89</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2533,44 +2506,44 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="9">
+        <v>113</v>
+      </c>
+      <c r="E27" s="8">
         <v>26</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="9">
+        <v>114</v>
+      </c>
+      <c r="E28" s="8">
         <v>60</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="10">
+        <v>125</v>
+      </c>
+      <c r="G29" s="9">
         <f>SUM(G3:G28)</f>
         <v>230</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L29">
         <f>SUM(L3:L26)</f>
@@ -2599,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -2661,7 +2634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2652,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,63 +2663,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2756,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2767,667 +2740,599 @@
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="1">
-        <v>1076</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>59</v>
+      <c r="A4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="1">
-        <v>898</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" s="1">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B20" s="1">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="1">
-        <v>97</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="1">
-        <v>178</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="8" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="8">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="9">
-        <v>4160</v>
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8">
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="9">
-        <v>53</v>
+        <v>88</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="9">
-        <v>47</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="8">
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="9">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="B6" s="8">
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="9">
-        <v>35</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="8">
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="9">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="8">
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="9">
-        <v>40</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="8">
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="9">
-        <v>27</v>
+        <v>94</v>
+      </c>
+      <c r="B10" s="8">
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="9">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="8">
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="9">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="B12" s="8">
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="9">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="8">
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="9">
-        <v>59</v>
+        <v>98</v>
+      </c>
+      <c r="B14" s="8">
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="9">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="B15" s="8">
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="9">
-        <v>49</v>
+        <v>101</v>
+      </c>
+      <c r="B16" s="8">
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="9">
-        <v>132</v>
+        <v>102</v>
+      </c>
+      <c r="B17" s="8">
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="9">
-        <v>60</v>
+        <v>103</v>
+      </c>
+      <c r="B18" s="8">
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="9">
-        <v>174</v>
+        <v>105</v>
+      </c>
+      <c r="B19" s="8">
+        <v>399</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="9">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="B20" s="8">
+        <v>399</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="9">
-        <v>399</v>
+        <v>108</v>
+      </c>
+      <c r="B21" s="8">
+        <v>754</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="9">
-        <v>399</v>
+        <v>109</v>
+      </c>
+      <c r="B22" s="8">
+        <v>542</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="9">
-        <v>754</v>
+        <v>110</v>
+      </c>
+      <c r="B23" s="8">
+        <v>657</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="9">
-        <v>542</v>
+        <v>111</v>
+      </c>
+      <c r="B24" s="8">
+        <v>232</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="9">
-        <v>657</v>
+        <v>112</v>
+      </c>
+      <c r="B25" s="8">
+        <v>89</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="9">
-        <v>232</v>
+        <v>113</v>
+      </c>
+      <c r="B26" s="8">
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="9">
-        <v>89</v>
+        <v>114</v>
+      </c>
+      <c r="B27" s="8">
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="9">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="9">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>